--- a/data/trans_orig/P78_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P78_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>391444</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>379068</v>
+        <v>378363</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>396952</v>
+        <v>396981</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9796655098997405</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9486929447557968</v>
+        <v>0.9469265928089076</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9934513852703722</v>
+        <v>0.9935229339672618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>478</v>
@@ -762,19 +762,19 @@
         <v>356732</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>348263</v>
+        <v>346609</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>362500</v>
+        <v>362449</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9604447768450118</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9376426097082735</v>
+        <v>0.9331897586774411</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9759727915587156</v>
+        <v>0.9758364458944199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>828</v>
@@ -783,19 +783,19 @@
         <v>748177</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>733451</v>
+        <v>734861</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>756474</v>
+        <v>756292</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.970405972180831</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9513057675983126</v>
+        <v>0.9531351069701545</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9811668211132438</v>
+        <v>0.9809316458264721</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>8125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2617</v>
+        <v>2588</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20501</v>
+        <v>21206</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02033449010025952</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006548614729627759</v>
+        <v>0.00647706603273825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.051307055244203</v>
+        <v>0.0530734071910927</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -833,19 +833,19 @@
         <v>14692</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8924</v>
+        <v>8975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23161</v>
+        <v>24815</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03955522315498822</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02402720844128428</v>
+        <v>0.02416355410558019</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06235739029172663</v>
+        <v>0.06681024132255903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>25</v>
@@ -854,19 +854,19 @@
         <v>22817</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14520</v>
+        <v>14702</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37543</v>
+        <v>36133</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02959402781916898</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0188331788867562</v>
+        <v>0.01906835417352785</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04869423240168747</v>
+        <v>0.04686489302984531</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>328388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>321025</v>
+        <v>321651</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>332346</v>
+        <v>332307</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9793140801745596</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9573564425937235</v>
+        <v>0.959223429534339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.991118378062067</v>
+        <v>0.9910035499131754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>407</v>
@@ -979,19 +979,19 @@
         <v>306792</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>299089</v>
+        <v>298111</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>312638</v>
+        <v>312047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9557161006059308</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9317220421214648</v>
+        <v>0.92867384720546</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9739279973132844</v>
+        <v>0.9720888813644901</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>692</v>
@@ -1000,19 +1000,19 @@
         <v>635179</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>625628</v>
+        <v>625907</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>642725</v>
+        <v>642737</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9677724654947532</v>
+        <v>0.9677724654947534</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9532195194698864</v>
+        <v>0.9536448728469099</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9792691487975297</v>
+        <v>0.9792882884662223</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>6936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2978</v>
+        <v>3017</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14299</v>
+        <v>13673</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02068591982544048</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008881621937932979</v>
+        <v>0.008996450086824552</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04264355740627766</v>
+        <v>0.04077657046566092</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1050,19 +1050,19 @@
         <v>14215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8369</v>
+        <v>8960</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>21918</v>
+        <v>22896</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04428389939406915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02607200268671579</v>
+        <v>0.0279111186355098</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06827795787853645</v>
+        <v>0.07132615279454006</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>27</v>
@@ -1071,19 +1071,19 @@
         <v>21152</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13606</v>
+        <v>13594</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30703</v>
+        <v>30424</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03222753450524683</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02073085120247012</v>
+        <v>0.02071171153377784</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04678048053011374</v>
+        <v>0.04635512715309005</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>276482</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>267352</v>
+        <v>266290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>281158</v>
+        <v>281686</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9719043280030054</v>
+        <v>0.9719043280030056</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9398089039175429</v>
+        <v>0.936074382912243</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9883384706581116</v>
+        <v>0.9901953850537741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -1196,19 +1196,19 @@
         <v>100167</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90822</v>
+        <v>89695</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>106858</v>
+        <v>107910</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.7997297788939041</v>
+        <v>0.7997297788939042</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.725116605893018</v>
+        <v>0.7161254016815626</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8531532945834555</v>
+        <v>0.8615537882717509</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>391</v>
@@ -1217,19 +1217,19 @@
         <v>376649</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>361234</v>
+        <v>363355</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>385859</v>
+        <v>385746</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9192714115235006</v>
+        <v>0.9192714115235004</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8816478319961903</v>
+        <v>0.8868236544224195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9417480424041473</v>
+        <v>0.9414722711793272</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>7993</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3317</v>
+        <v>2789</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17123</v>
+        <v>18185</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0280956719969945</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01166152934188854</v>
+        <v>0.009804614946225768</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06019109608245726</v>
+        <v>0.0639256170877566</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>37</v>
@@ -1267,19 +1267,19 @@
         <v>25084</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18393</v>
+        <v>17341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34429</v>
+        <v>35556</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2002702211060959</v>
+        <v>0.200270221106096</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1468467054165445</v>
+        <v>0.1384462117282491</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2748833941069833</v>
+        <v>0.2838745983184377</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -1288,19 +1288,19 @@
         <v>33077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>23867</v>
+        <v>23980</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48492</v>
+        <v>46371</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.08072858847649951</v>
+        <v>0.0807285884764995</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05825195759585301</v>
+        <v>0.05852772882067282</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1183521680038097</v>
+        <v>0.1131763455775805</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>654635</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>637637</v>
+        <v>637099</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>668002</v>
+        <v>667059</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9548397450161124</v>
+        <v>0.9548397450161126</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9300460486092633</v>
+        <v>0.9292611146349722</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9743357515676851</v>
+        <v>0.9729604420051845</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>741</v>
@@ -1413,19 +1413,19 @@
         <v>557493</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>543032</v>
+        <v>544481</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>568479</v>
+        <v>570081</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8938229477961196</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8706386404372183</v>
+        <v>0.8729612894357339</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9114375710202907</v>
+        <v>0.9140058216248853</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1300</v>
@@ -1434,19 +1434,19 @@
         <v>1212128</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1189266</v>
+        <v>1190232</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1228681</v>
+        <v>1229804</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9257732243981125</v>
+        <v>0.9257732243981123</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9083126246355918</v>
+        <v>0.9090501805797562</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9384159246826561</v>
+        <v>0.9392737158489274</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>30962</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17595</v>
+        <v>18538</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47960</v>
+        <v>48498</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0451602549838875</v>
+        <v>0.04516025498388751</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02566424843231466</v>
+        <v>0.02703955799481551</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06995395139073642</v>
+        <v>0.07073888536502769</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -1484,19 +1484,19 @@
         <v>66224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55238</v>
+        <v>53636</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>80685</v>
+        <v>79236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1061770522038805</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08856242897970919</v>
+        <v>0.0859941783751148</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1293613595627818</v>
+        <v>0.1270387105642662</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -1505,19 +1505,19 @@
         <v>97186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>80633</v>
+        <v>79510</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>120048</v>
+        <v>119082</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07422677560188766</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06158407531734411</v>
+        <v>0.06072628415107267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09168737536440812</v>
+        <v>0.0909498194202439</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>323692</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>312631</v>
+        <v>312767</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>330628</v>
+        <v>330648</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9507775297286268</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9182869204003661</v>
+        <v>0.9186876532437697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.971150670758828</v>
+        <v>0.9712086923878109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>563</v>
@@ -1630,19 +1630,19 @@
         <v>408747</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>391844</v>
+        <v>390736</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>424333</v>
+        <v>424215</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7852766792935574</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.752804276327357</v>
+        <v>0.7506754843752094</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8152202189889003</v>
+        <v>0.8149948818096701</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>828</v>
@@ -1651,19 +1651,19 @@
         <v>732439</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>709443</v>
+        <v>711829</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>749431</v>
+        <v>748949</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.850720505983854</v>
+        <v>0.8507205059838538</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8240104685294328</v>
+        <v>0.8267823147011583</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8704569578864094</v>
+        <v>0.8698967746529854</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>16758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9822</v>
+        <v>9802</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27819</v>
+        <v>27683</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04922247027137314</v>
+        <v>0.04922247027137313</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02884932924117202</v>
+        <v>0.0287913076121892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08171307959963391</v>
+        <v>0.08131234675623199</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>188</v>
@@ -1701,19 +1701,19 @@
         <v>111766</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>96180</v>
+        <v>96298</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128669</v>
+        <v>129777</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2147233207064426</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1847797810111</v>
+        <v>0.18500511819033</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2471957236726429</v>
+        <v>0.2493245156247907</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>204</v>
@@ -1722,19 +1722,19 @@
         <v>128524</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111532</v>
+        <v>112014</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>151520</v>
+        <v>149134</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1492794940161461</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1295430421135906</v>
+        <v>0.1301032253470145</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1759895314705671</v>
+        <v>0.173217685298842</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>196402</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>179618</v>
+        <v>179647</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>208753</v>
+        <v>210010</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8475534130717435</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7751231657674795</v>
+        <v>0.7752513336433523</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9008522705094107</v>
+        <v>0.9062800138523894</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>410</v>
@@ -1847,19 +1847,19 @@
         <v>402588</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>372098</v>
+        <v>371478</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>430396</v>
+        <v>432318</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4917975830397015</v>
+        <v>0.4917975830397017</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4545512017801799</v>
+        <v>0.4537938003966661</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.525767418542324</v>
+        <v>0.528115664824001</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>496</v>
@@ -1868,19 +1868,19 @@
         <v>598990</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>562644</v>
+        <v>562399</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>632443</v>
+        <v>630008</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5702856627077223</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5356811972179324</v>
+        <v>0.535447379716933</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6021352578089725</v>
+        <v>0.5998166559753114</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>35326</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22975</v>
+        <v>21718</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>52110</v>
+        <v>52081</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1524465869282566</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09914772949058921</v>
+        <v>0.09371998614761073</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2248768342325202</v>
+        <v>0.2247486663566478</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>714</v>
@@ -1918,19 +1918,19 @@
         <v>416017</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>388209</v>
+        <v>386287</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>446507</v>
+        <v>447127</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5082024169602983</v>
+        <v>0.5082024169602984</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4742325814576761</v>
+        <v>0.4718843351759989</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5454487982198201</v>
+        <v>0.5462061996033338</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>737</v>
@@ -1939,19 +1939,19 @@
         <v>451344</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>417891</v>
+        <v>420326</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>487690</v>
+        <v>487935</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4297143372922774</v>
+        <v>0.4297143372922775</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3978647421910275</v>
+        <v>0.4001833440246889</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4643188027820677</v>
+        <v>0.4645526202830672</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>2171043</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2137669</v>
+        <v>2142694</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2194246</v>
+        <v>2196070</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9534066505010792</v>
+        <v>0.953406650501079</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9387505516836584</v>
+        <v>0.9409572770121801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.963595950794674</v>
+        <v>0.9643969488437091</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2744</v>
@@ -2064,19 +2064,19 @@
         <v>2132519</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2094425</v>
+        <v>2094444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2169372</v>
+        <v>2169796</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7669501392068583</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7532501044492308</v>
+        <v>0.7532567305654204</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7802044054941241</v>
+        <v>0.7803567413234629</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4535</v>
@@ -2085,19 +2085,19 @@
         <v>4303563</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4253006</v>
+        <v>4256299</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4349930</v>
+        <v>4349801</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8508996496605394</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8409034807366355</v>
+        <v>0.8415547028409872</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8600673964648645</v>
+        <v>0.8600417837013816</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>106100</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>82897</v>
+        <v>81073</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>139474</v>
+        <v>134449</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0465933494989209</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03640404920532615</v>
+        <v>0.0356030511562911</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06124944831634174</v>
+        <v>0.05904272298781977</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1086</v>
@@ -2135,19 +2135,19 @@
         <v>647999</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>611146</v>
+        <v>610722</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>686093</v>
+        <v>686074</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2330498607931418</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2197955945058759</v>
+        <v>0.2196432586765373</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2467498955507691</v>
+        <v>0.2467432694345795</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1164</v>
@@ -2156,19 +2156,19 @@
         <v>754099</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>707732</v>
+        <v>707861</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>804656</v>
+        <v>801363</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1491003503394604</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1399326035351351</v>
+        <v>0.1399582162986183</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1590965192633645</v>
+        <v>0.1584452971590125</v>
       </c>
     </row>
     <row r="24">
